--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema5a-Plxnb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema5a-Plxnb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Sema5a</t>
+  </si>
+  <si>
+    <t>Plxnb3</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Sema5a</t>
-  </si>
-  <si>
-    <t>Plxnb3</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.703141</v>
+        <v>1.5773775</v>
       </c>
       <c r="H2">
-        <v>1.406282</v>
+        <v>3.154755</v>
       </c>
       <c r="I2">
-        <v>0.06072384981785994</v>
+        <v>0.1167860788573942</v>
       </c>
       <c r="J2">
-        <v>0.04843113720817008</v>
+        <v>0.09944780588020806</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.320299</v>
+        <v>0.4804655</v>
       </c>
       <c r="N2">
-        <v>0.640598</v>
+        <v>0.960931</v>
       </c>
       <c r="O2">
-        <v>0.05278086515463031</v>
+        <v>0.06003132223264835</v>
       </c>
       <c r="P2">
-        <v>0.04521377586037017</v>
+        <v>0.05494677099640573</v>
       </c>
       <c r="Q2">
-        <v>0.225215359159</v>
+        <v>0.75787546922625</v>
       </c>
       <c r="R2">
-        <v>0.900861436636</v>
+        <v>3.031501876905</v>
       </c>
       <c r="S2">
-        <v>0.003205057328906488</v>
+        <v>0.007010822732175714</v>
       </c>
       <c r="T2">
-        <v>0.002189754582393036</v>
+        <v>0.005464335815794803</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.703141</v>
+        <v>1.5773775</v>
       </c>
       <c r="H3">
-        <v>1.406282</v>
+        <v>3.154755</v>
       </c>
       <c r="I3">
-        <v>0.06072384981785994</v>
+        <v>0.1167860788573942</v>
       </c>
       <c r="J3">
-        <v>0.04843113720817008</v>
+        <v>0.09944780588020806</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.358708</v>
       </c>
       <c r="O3">
-        <v>0.01970337983976132</v>
+        <v>0.01493948093770786</v>
       </c>
       <c r="P3">
-        <v>0.02531781727592291</v>
+        <v>0.02051119833846416</v>
       </c>
       <c r="Q3">
-        <v>0.08407410060933335</v>
+        <v>0.18860597609</v>
       </c>
       <c r="R3">
-        <v>0.5044446036560001</v>
+        <v>1.13163585654</v>
       </c>
       <c r="S3">
-        <v>0.001196465078293915</v>
+        <v>0.001744723398879688</v>
       </c>
       <c r="T3">
-        <v>0.001226170682301601</v>
+        <v>0.00203979367073403</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.703141</v>
+        <v>1.5773775</v>
       </c>
       <c r="H4">
-        <v>1.406282</v>
+        <v>3.154755</v>
       </c>
       <c r="I4">
-        <v>0.06072384981785994</v>
+        <v>0.1167860788573942</v>
       </c>
       <c r="J4">
-        <v>0.04843113720817008</v>
+        <v>0.09944780588020806</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5543383333333335</v>
+        <v>0.347314</v>
       </c>
       <c r="N4">
-        <v>1.663015</v>
+        <v>1.041942</v>
       </c>
       <c r="O4">
-        <v>0.09134732491112736</v>
+        <v>0.04339482990955652</v>
       </c>
       <c r="P4">
-        <v>0.1173765566898952</v>
+        <v>0.05957904205977013</v>
       </c>
       <c r="Q4">
-        <v>0.3897780100383335</v>
+        <v>0.547845289035</v>
       </c>
       <c r="R4">
-        <v>2.338668060230001</v>
+        <v>3.28707173421</v>
       </c>
       <c r="S4">
-        <v>0.005546961239166553</v>
+        <v>0.005067912027820677</v>
       </c>
       <c r="T4">
-        <v>0.005684680122070869</v>
+        <v>0.005925005009288772</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.703141</v>
+        <v>1.5773775</v>
       </c>
       <c r="H5">
-        <v>1.406282</v>
+        <v>3.154755</v>
       </c>
       <c r="I5">
-        <v>0.06072384981785994</v>
+        <v>0.1167860788573942</v>
       </c>
       <c r="J5">
-        <v>0.04843113720817008</v>
+        <v>0.09944780588020806</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.7169015</v>
+        <v>6.041876999999999</v>
       </c>
       <c r="N5">
-        <v>7.433803</v>
+        <v>12.083754</v>
       </c>
       <c r="O5">
-        <v>0.6124941909420358</v>
+        <v>0.7548967929581347</v>
       </c>
       <c r="P5">
-        <v>0.5246820980273859</v>
+        <v>0.6909583141920718</v>
       </c>
       <c r="Q5">
-        <v>2.6135058376115</v>
+        <v>9.530320837567499</v>
       </c>
       <c r="R5">
-        <v>10.454023350446</v>
+        <v>38.12128335027</v>
       </c>
       <c r="S5">
-        <v>0.03719300526507581</v>
+        <v>0.08816143639160273</v>
       </c>
       <c r="T5">
-        <v>0.02541095068023487</v>
+        <v>0.06871428830108896</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.703141</v>
+        <v>1.5773775</v>
       </c>
       <c r="H6">
-        <v>1.406282</v>
+        <v>3.154755</v>
       </c>
       <c r="I6">
-        <v>0.06072384981785994</v>
+        <v>0.1167860788573942</v>
       </c>
       <c r="J6">
-        <v>0.04843113720817008</v>
+        <v>0.09944780588020806</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2850306666666667</v>
+        <v>0.653721</v>
       </c>
       <c r="N6">
-        <v>0.855092</v>
+        <v>1.961163</v>
       </c>
       <c r="O6">
-        <v>0.04696912941429013</v>
+        <v>0.08167857213733164</v>
       </c>
       <c r="P6">
-        <v>0.06035288594094212</v>
+        <v>0.1121408032914164</v>
       </c>
       <c r="Q6">
-        <v>0.2004167479906667</v>
+        <v>1.0311647966775</v>
       </c>
       <c r="R6">
-        <v>1.202500487944</v>
+        <v>6.186988780065001</v>
       </c>
       <c r="S6">
-        <v>0.002852146360628981</v>
+        <v>0.009538920166589776</v>
       </c>
       <c r="T6">
-        <v>0.002922958899914807</v>
+        <v>0.01115215683697538</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.703141</v>
+        <v>1.5773775</v>
       </c>
       <c r="H7">
-        <v>1.406282</v>
+        <v>3.154755</v>
       </c>
       <c r="I7">
-        <v>0.06072384981785994</v>
+        <v>0.1167860788573942</v>
       </c>
       <c r="J7">
-        <v>0.04843113720817008</v>
+        <v>0.09944780588020806</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.072329333333333</v>
+        <v>0.3606333333333334</v>
       </c>
       <c r="N7">
-        <v>3.216988</v>
+        <v>1.0819</v>
       </c>
       <c r="O7">
-        <v>0.1767051097381549</v>
+        <v>0.04505900182462096</v>
       </c>
       <c r="P7">
-        <v>0.2270568662054838</v>
+        <v>0.06186387112187177</v>
       </c>
       <c r="Q7">
-        <v>0.7539987197693333</v>
+        <v>0.5688549057500001</v>
       </c>
       <c r="R7">
-        <v>4.523992318616</v>
+        <v>3.413129434500001</v>
       </c>
       <c r="S7">
-        <v>0.01073021454578818</v>
+        <v>0.005262264140325654</v>
       </c>
       <c r="T7">
-        <v>0.0109966222412549</v>
+        <v>0.006152226246326113</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.709612666666667</v>
+        <v>4.709612666666668</v>
       </c>
       <c r="H8">
         <v>14.128838</v>
       </c>
       <c r="I8">
-        <v>0.4067261221731595</v>
+        <v>0.3486909102463527</v>
       </c>
       <c r="J8">
-        <v>0.4865849749694636</v>
+        <v>0.4453854384054886</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.320299</v>
+        <v>0.4804655</v>
       </c>
       <c r="N8">
-        <v>0.640598</v>
+        <v>0.960931</v>
       </c>
       <c r="O8">
-        <v>0.05278086515463031</v>
+        <v>0.06003132223264835</v>
       </c>
       <c r="P8">
-        <v>0.04521377586037017</v>
+        <v>0.05494677099640573</v>
       </c>
       <c r="Q8">
-        <v>1.508484227520667</v>
+        <v>2.262806404696334</v>
       </c>
       <c r="R8">
-        <v>9.050905365124001</v>
+        <v>13.576838428178</v>
       </c>
       <c r="S8">
-        <v>0.02146735660928722</v>
+        <v>0.02093237639259426</v>
       </c>
       <c r="T8">
-        <v>0.02200034399529316</v>
+        <v>0.02447249168920015</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.709612666666667</v>
+        <v>4.709612666666668</v>
       </c>
       <c r="H9">
         <v>14.128838</v>
       </c>
       <c r="I9">
-        <v>0.4067261221731595</v>
+        <v>0.3486909102463527</v>
       </c>
       <c r="J9">
-        <v>0.4865849749694636</v>
+        <v>0.4453854384054886</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>0.358708</v>
       </c>
       <c r="O9">
-        <v>0.01970337983976132</v>
+        <v>0.01493948093770786</v>
       </c>
       <c r="P9">
-        <v>0.02531781727592291</v>
+        <v>0.02051119833846416</v>
       </c>
       <c r="Q9">
-        <v>0.5631252468115556</v>
+        <v>0.5631252468115557</v>
       </c>
       <c r="R9">
         <v>5.068127221304001</v>
       </c>
       <c r="S9">
-        <v>0.008013879275930929</v>
+        <v>0.005209261206777387</v>
       </c>
       <c r="T9">
-        <v>0.0123192694854864</v>
+        <v>0.009135389064198791</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,14 +1024,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.709612666666667</v>
+        <v>4.709612666666668</v>
       </c>
       <c r="H10">
         <v>14.128838</v>
       </c>
       <c r="I10">
-        <v>0.4067261221731595</v>
+        <v>0.3486909102463527</v>
       </c>
       <c r="J10">
-        <v>0.4865849749694636</v>
+        <v>0.4453854384054886</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5543383333333335</v>
+        <v>0.347314</v>
       </c>
       <c r="N10">
-        <v>1.663015</v>
+        <v>1.041942</v>
       </c>
       <c r="O10">
-        <v>0.09134732491112736</v>
+        <v>0.04339482990955652</v>
       </c>
       <c r="P10">
-        <v>0.1173765566898952</v>
+        <v>0.05957904205977013</v>
       </c>
       <c r="Q10">
-        <v>2.610718836285556</v>
+        <v>1.635714413710667</v>
       </c>
       <c r="R10">
-        <v>23.49646952657001</v>
+        <v>14.721429723396</v>
       </c>
       <c r="S10">
-        <v>0.03715334323199448</v>
+        <v>0.01513138274114891</v>
       </c>
       <c r="T10">
-        <v>0.0571136688989545</v>
+        <v>0.02653563776756977</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.709612666666667</v>
+        <v>4.709612666666668</v>
       </c>
       <c r="H11">
         <v>14.128838</v>
       </c>
       <c r="I11">
-        <v>0.4067261221731595</v>
+        <v>0.3486909102463527</v>
       </c>
       <c r="J11">
-        <v>0.4865849749694636</v>
+        <v>0.4453854384054886</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.7169015</v>
+        <v>6.041876999999999</v>
       </c>
       <c r="N11">
-        <v>7.433803</v>
+        <v>12.083754</v>
       </c>
       <c r="O11">
-        <v>0.6124941909420358</v>
+        <v>0.7548967929581347</v>
       </c>
       <c r="P11">
-        <v>0.5246820980273859</v>
+        <v>0.6909583141920718</v>
       </c>
       <c r="Q11">
-        <v>17.50516638515233</v>
+        <v>28.454900449642</v>
       </c>
       <c r="R11">
-        <v>105.030998310914</v>
+        <v>170.729402697852</v>
       </c>
       <c r="S11">
-        <v>0.2491173871354409</v>
+        <v>0.2632256498786245</v>
       </c>
       <c r="T11">
-        <v>0.2553024255355812</v>
+        <v>0.3077427716863532</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.709612666666667</v>
+        <v>4.709612666666668</v>
       </c>
       <c r="H12">
         <v>14.128838</v>
       </c>
       <c r="I12">
-        <v>0.4067261221731595</v>
+        <v>0.3486909102463527</v>
       </c>
       <c r="J12">
-        <v>0.4865849749694636</v>
+        <v>0.4453854384054886</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2850306666666667</v>
+        <v>0.653721</v>
       </c>
       <c r="N12">
-        <v>0.855092</v>
+        <v>1.961163</v>
       </c>
       <c r="O12">
-        <v>0.04696912941429013</v>
+        <v>0.08167857213733164</v>
       </c>
       <c r="P12">
-        <v>0.06035288594094212</v>
+        <v>0.1121408032914164</v>
       </c>
       <c r="Q12">
-        <v>1.342384038121778</v>
+        <v>3.078772702066001</v>
       </c>
       <c r="R12">
-        <v>12.081456343096</v>
+        <v>27.708954318594</v>
       </c>
       <c r="S12">
-        <v>0.0191035718685235</v>
+        <v>0.02848057566618855</v>
       </c>
       <c r="T12">
-        <v>0.02936680749490822</v>
+        <v>0.04994588083709115</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.709612666666667</v>
+        <v>4.709612666666668</v>
       </c>
       <c r="H13">
         <v>14.128838</v>
       </c>
       <c r="I13">
-        <v>0.4067261221731595</v>
+        <v>0.3486909102463527</v>
       </c>
       <c r="J13">
-        <v>0.4865849749694636</v>
+        <v>0.4453854384054886</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.072329333333333</v>
+        <v>0.3606333333333334</v>
       </c>
       <c r="N13">
-        <v>3.216988</v>
+        <v>1.0819</v>
       </c>
       <c r="O13">
-        <v>0.1767051097381549</v>
+        <v>0.04505900182462096</v>
       </c>
       <c r="P13">
-        <v>0.2270568662054838</v>
+        <v>0.06186387112187177</v>
       </c>
       <c r="Q13">
-        <v>5.050255811104888</v>
+        <v>1.698443314688889</v>
       </c>
       <c r="R13">
-        <v>45.45230229994399</v>
+        <v>15.2859898322</v>
       </c>
       <c r="S13">
-        <v>0.07187058405198235</v>
+        <v>0.01571166436101915</v>
       </c>
       <c r="T13">
-        <v>0.1104824595592402</v>
+        <v>0.02755326736107551</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.9980915</v>
+        <v>7.219564</v>
       </c>
       <c r="H14">
-        <v>9.996183</v>
+        <v>14.439128</v>
       </c>
       <c r="I14">
-        <v>0.4316393975346656</v>
+        <v>0.5345230108962531</v>
       </c>
       <c r="J14">
-        <v>0.3442599069254795</v>
+        <v>0.4551667557143033</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.320299</v>
+        <v>0.4804655</v>
       </c>
       <c r="N14">
-        <v>0.640598</v>
+        <v>0.960931</v>
       </c>
       <c r="O14">
-        <v>0.05278086515463031</v>
+        <v>0.06003132223264835</v>
       </c>
       <c r="P14">
-        <v>0.04521377586037017</v>
+        <v>0.05494677099640573</v>
       </c>
       <c r="Q14">
-        <v>1.6008837093585</v>
+        <v>3.468751427042</v>
       </c>
       <c r="R14">
-        <v>6.403534837434</v>
+        <v>13.875005708168</v>
       </c>
       <c r="S14">
-        <v>0.02278230083670305</v>
+        <v>0.03208812310787838</v>
       </c>
       <c r="T14">
-        <v>0.01556529026944053</v>
+        <v>0.02500994349141077</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.9980915</v>
+        <v>7.219564</v>
       </c>
       <c r="H15">
-        <v>9.996183</v>
+        <v>14.439128</v>
       </c>
       <c r="I15">
-        <v>0.4316393975346656</v>
+        <v>0.5345230108962531</v>
       </c>
       <c r="J15">
-        <v>0.3442599069254795</v>
+        <v>0.4551667557143033</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.358708</v>
       </c>
       <c r="O15">
-        <v>0.01970337983976132</v>
+        <v>0.01493948093770786</v>
       </c>
       <c r="P15">
-        <v>0.02531781727592291</v>
+        <v>0.02051119833846416</v>
       </c>
       <c r="Q15">
-        <v>0.597618468594</v>
+        <v>0.8632384544373335</v>
       </c>
       <c r="R15">
-        <v>3.585710811564</v>
+        <v>5.179430726624</v>
       </c>
       <c r="S15">
-        <v>0.008504755003431251</v>
+        <v>0.007985496332050783</v>
       </c>
       <c r="T15">
-        <v>0.008715909418965518</v>
+        <v>0.009336015603531341</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.9980915</v>
+        <v>7.219564</v>
       </c>
       <c r="H16">
-        <v>9.996183</v>
+        <v>14.439128</v>
       </c>
       <c r="I16">
-        <v>0.4316393975346656</v>
+        <v>0.5345230108962531</v>
       </c>
       <c r="J16">
-        <v>0.3442599069254795</v>
+        <v>0.4551667557143033</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5543383333333335</v>
+        <v>0.347314</v>
       </c>
       <c r="N16">
-        <v>1.663015</v>
+        <v>1.041942</v>
       </c>
       <c r="O16">
-        <v>0.09134732491112736</v>
+        <v>0.04339482990955652</v>
       </c>
       <c r="P16">
-        <v>0.1173765566898952</v>
+        <v>0.05957904205977013</v>
       </c>
       <c r="Q16">
-        <v>2.770633711957501</v>
+        <v>2.507455651096</v>
       </c>
       <c r="R16">
-        <v>16.623802271745</v>
+        <v>15.044733906576</v>
       </c>
       <c r="S16">
-        <v>0.03942910429104236</v>
+        <v>0.02319553514058693</v>
       </c>
       <c r="T16">
-        <v>0.0404080424812966</v>
+        <v>0.02711839928291159</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.9980915</v>
+        <v>7.219564</v>
       </c>
       <c r="H17">
-        <v>9.996183</v>
+        <v>14.439128</v>
       </c>
       <c r="I17">
-        <v>0.4316393975346656</v>
+        <v>0.5345230108962531</v>
       </c>
       <c r="J17">
-        <v>0.3442599069254795</v>
+        <v>0.4551667557143033</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.7169015</v>
+        <v>6.041876999999999</v>
       </c>
       <c r="N17">
-        <v>7.433803</v>
+        <v>12.083754</v>
       </c>
       <c r="O17">
-        <v>0.6124941909420358</v>
+        <v>0.7548967929581347</v>
       </c>
       <c r="P17">
-        <v>0.5246820980273859</v>
+        <v>0.6909583141920718</v>
       </c>
       <c r="Q17">
-        <v>18.57741379348725</v>
+        <v>43.619717681628</v>
       </c>
       <c r="R17">
-        <v>74.309655173949</v>
+        <v>174.478870726512</v>
       </c>
       <c r="S17">
-        <v>0.2643766235717028</v>
+        <v>0.4035097066879076</v>
       </c>
       <c r="T17">
-        <v>0.1806270102323732</v>
+        <v>0.3145012542046295</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.9980915</v>
+        <v>7.219564</v>
       </c>
       <c r="H18">
-        <v>9.996183</v>
+        <v>14.439128</v>
       </c>
       <c r="I18">
-        <v>0.4316393975346656</v>
+        <v>0.5345230108962531</v>
       </c>
       <c r="J18">
-        <v>0.3442599069254795</v>
+        <v>0.4551667557143033</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.2850306666666667</v>
+        <v>0.653721</v>
       </c>
       <c r="N18">
-        <v>0.855092</v>
+        <v>1.961163</v>
       </c>
       <c r="O18">
-        <v>0.04696912941429013</v>
+        <v>0.08167857213733164</v>
       </c>
       <c r="P18">
-        <v>0.06035288594094212</v>
+        <v>0.1121408032914164</v>
       </c>
       <c r="Q18">
-        <v>1.424609352306</v>
+        <v>4.719580597644</v>
       </c>
       <c r="R18">
-        <v>8.547656113836</v>
+        <v>28.317483585864</v>
       </c>
       <c r="S18">
-        <v>0.02027372672311193</v>
+        <v>0.04365907630455331</v>
       </c>
       <c r="T18">
-        <v>0.02077707889671282</v>
+        <v>0.05104276561734986</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.9980915</v>
+        <v>7.219564</v>
       </c>
       <c r="H19">
-        <v>9.996183</v>
+        <v>14.439128</v>
       </c>
       <c r="I19">
-        <v>0.4316393975346656</v>
+        <v>0.5345230108962531</v>
       </c>
       <c r="J19">
-        <v>0.3442599069254795</v>
+        <v>0.4551667557143033</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.072329333333333</v>
+        <v>0.3606333333333334</v>
       </c>
       <c r="N19">
-        <v>3.216988</v>
+        <v>1.0819</v>
       </c>
       <c r="O19">
-        <v>0.1767051097381549</v>
+        <v>0.04505900182462096</v>
       </c>
       <c r="P19">
-        <v>0.2270568662054838</v>
+        <v>0.06186387112187177</v>
       </c>
       <c r="Q19">
-        <v>5.359600126134</v>
+        <v>2.603615430533333</v>
       </c>
       <c r="R19">
-        <v>32.157600756804</v>
+        <v>15.6216925832</v>
       </c>
       <c r="S19">
-        <v>0.07627288710867416</v>
+        <v>0.02408507332327615</v>
       </c>
       <c r="T19">
-        <v>0.0781665756266909</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1.168476666666667</v>
-      </c>
-      <c r="H20">
-        <v>3.50543</v>
-      </c>
-      <c r="I20">
-        <v>0.1009106304743149</v>
-      </c>
-      <c r="J20">
-        <v>0.1207239808968867</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.320299</v>
-      </c>
-      <c r="N20">
-        <v>0.640598</v>
-      </c>
-      <c r="O20">
-        <v>0.05278086515463031</v>
-      </c>
-      <c r="P20">
-        <v>0.04521377586037017</v>
-      </c>
-      <c r="Q20">
-        <v>0.3742619078566666</v>
-      </c>
-      <c r="R20">
-        <v>2.24557144714</v>
-      </c>
-      <c r="S20">
-        <v>0.005326150379733542</v>
-      </c>
-      <c r="T20">
-        <v>0.005458387013243446</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.168476666666667</v>
-      </c>
-      <c r="H21">
-        <v>3.50543</v>
-      </c>
-      <c r="I21">
-        <v>0.1009106304743149</v>
-      </c>
-      <c r="J21">
-        <v>0.1207239808968867</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.1195693333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.358708</v>
-      </c>
-      <c r="O21">
-        <v>0.01970337983976132</v>
-      </c>
-      <c r="P21">
-        <v>0.02531781727592291</v>
-      </c>
-      <c r="Q21">
-        <v>0.1397139760488889</v>
-      </c>
-      <c r="R21">
-        <v>1.25742578444</v>
-      </c>
-      <c r="S21">
-        <v>0.00198828048210522</v>
-      </c>
-      <c r="T21">
-        <v>0.003056467689169386</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1.168476666666667</v>
-      </c>
-      <c r="H22">
-        <v>3.50543</v>
-      </c>
-      <c r="I22">
-        <v>0.1009106304743149</v>
-      </c>
-      <c r="J22">
-        <v>0.1207239808968867</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.5543383333333335</v>
-      </c>
-      <c r="N22">
-        <v>1.663015</v>
-      </c>
-      <c r="O22">
-        <v>0.09134732491112736</v>
-      </c>
-      <c r="P22">
-        <v>0.1173765566898952</v>
-      </c>
-      <c r="Q22">
-        <v>0.6477314079388891</v>
-      </c>
-      <c r="R22">
-        <v>5.829582671450002</v>
-      </c>
-      <c r="S22">
-        <v>0.009217916148923953</v>
-      </c>
-      <c r="T22">
-        <v>0.01417016518757325</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1.168476666666667</v>
-      </c>
-      <c r="H23">
-        <v>3.50543</v>
-      </c>
-      <c r="I23">
-        <v>0.1009106304743149</v>
-      </c>
-      <c r="J23">
-        <v>0.1207239808968867</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>3.7169015</v>
-      </c>
-      <c r="N23">
-        <v>7.433803</v>
-      </c>
-      <c r="O23">
-        <v>0.6124941909420358</v>
-      </c>
-      <c r="P23">
-        <v>0.5246820980273859</v>
-      </c>
-      <c r="Q23">
-        <v>4.343112675048333</v>
-      </c>
-      <c r="R23">
-        <v>26.05867605029</v>
-      </c>
-      <c r="S23">
-        <v>0.06180717496981625</v>
-      </c>
-      <c r="T23">
-        <v>0.06334171157919657</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1.168476666666667</v>
-      </c>
-      <c r="H24">
-        <v>3.50543</v>
-      </c>
-      <c r="I24">
-        <v>0.1009106304743149</v>
-      </c>
-      <c r="J24">
-        <v>0.1207239808968867</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.2850306666666667</v>
-      </c>
-      <c r="N24">
-        <v>0.855092</v>
-      </c>
-      <c r="O24">
-        <v>0.04696912941429013</v>
-      </c>
-      <c r="P24">
-        <v>0.06035288594094212</v>
-      </c>
-      <c r="Q24">
-        <v>0.3330516832844444</v>
-      </c>
-      <c r="R24">
-        <v>2.99746514956</v>
-      </c>
-      <c r="S24">
-        <v>0.004739684462025705</v>
-      </c>
-      <c r="T24">
-        <v>0.007286040649406279</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1.168476666666667</v>
-      </c>
-      <c r="H25">
-        <v>3.50543</v>
-      </c>
-      <c r="I25">
-        <v>0.1009106304743149</v>
-      </c>
-      <c r="J25">
-        <v>0.1207239808968867</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.072329333333333</v>
-      </c>
-      <c r="N25">
-        <v>3.216988</v>
-      </c>
-      <c r="O25">
-        <v>0.1767051097381549</v>
-      </c>
-      <c r="P25">
-        <v>0.2270568662054838</v>
-      </c>
-      <c r="Q25">
-        <v>1.252991804982222</v>
-      </c>
-      <c r="R25">
-        <v>11.27692624484</v>
-      </c>
-      <c r="S25">
-        <v>0.01783142403171021</v>
-      </c>
-      <c r="T25">
-        <v>0.02741120877829778</v>
+        <v>0.02815837751447015</v>
       </c>
     </row>
   </sheetData>
